--- a/artfynd/A 28793-2023.xlsx
+++ b/artfynd/A 28793-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,6 +790,2337 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>111865488</v>
+      </c>
+      <c r="B3" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Långudden, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>702716.2360189059</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7299724.539719297</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>111866065</v>
+      </c>
+      <c r="B4" t="n">
+        <v>78107</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Långudden, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>702767.9701038125</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7299827.988589783</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>111866170</v>
+      </c>
+      <c r="B5" t="n">
+        <v>90682</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Långudden, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>702754.3208386695</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7299886.818591502</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>111866301</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Långudden, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>702522.1051459431</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7300047.742725079</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>111865919</v>
+      </c>
+      <c r="B7" t="n">
+        <v>95538</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>221941</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plattlummer</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Lycopodium complanatum</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Långudden, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>702755.0230470664</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7299754.083126943</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>111866276</v>
+      </c>
+      <c r="B8" t="n">
+        <v>78107</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Långudden, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>702660.5304515015</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7299928.856484808</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>111865961</v>
+      </c>
+      <c r="B9" t="n">
+        <v>77267</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Långudden, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>702714.4770808229</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7299790.39698876</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>111865981</v>
+      </c>
+      <c r="B10" t="n">
+        <v>90652</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Bankera fuligineoalba</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Långudden, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>702695.6801449896</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7299770.100652335</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>111866252</v>
+      </c>
+      <c r="B11" t="n">
+        <v>78107</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Långudden, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>702680.6244306123</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7299924.914052285</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>111865578</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90854</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2079</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nordtagging</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Odonticium romellii</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(S.Lundell) Parmasto</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Långudden, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>702741.9879008483</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7299745.739876431</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>111866194</v>
+      </c>
+      <c r="B13" t="n">
+        <v>90682</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Långudden, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>702686.7518818546</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7299919.985876646</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Flera fruktkoppar som växer i en häxring</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>111865524</v>
+      </c>
+      <c r="B14" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Långudden, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>702731.0699128226</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7299742.494774668</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>111866048</v>
+      </c>
+      <c r="B15" t="n">
+        <v>90682</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Långudden, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>702750.1350314748</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7299799.924799141</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>111866021</v>
+      </c>
+      <c r="B16" t="n">
+        <v>78107</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Långudden, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>702738.1111920479</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7299806.49869829</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>111866031</v>
+      </c>
+      <c r="B17" t="n">
+        <v>78107</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Långudden, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>702750.1350314748</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7299799.924799141</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>111865668</v>
+      </c>
+      <c r="B18" t="n">
+        <v>78107</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Långudden, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>702740.9003275807</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7299743.601162716</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>111865866</v>
+      </c>
+      <c r="B19" t="n">
+        <v>90652</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Bankera fuligineoalba</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Långudden, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>702753.3055412351</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7299801.798166115</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>111866131</v>
+      </c>
+      <c r="B20" t="n">
+        <v>90682</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Långudden, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>702756.5806601554</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7299854.813386399</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Flera fruktkoppar som växer i en häxring</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>111866159</v>
+      </c>
+      <c r="B21" t="n">
+        <v>90652</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Bankera fuligineoalba</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Långudden, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>702755.4455659754</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7299865.042498757</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>111865263</v>
+      </c>
+      <c r="B22" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Långudden, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>702714.1819675351</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7299724.394724619</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 28793-2023.xlsx
+++ b/artfynd/A 28793-2023.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111865488</v>
+        <v>111865263</v>
       </c>
       <c r="B3" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>702716.2360189059</v>
+        <v>702714.1819675351</v>
       </c>
       <c r="R3" t="n">
-        <v>7299724.539719297</v>
+        <v>7299724.394724619</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -908,10 +908,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111866065</v>
+        <v>111865961</v>
       </c>
       <c r="B4" t="n">
-        <v>78107</v>
+        <v>77267</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,21 +924,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>702767.9701038125</v>
+        <v>702714.4770808229</v>
       </c>
       <c r="R4" t="n">
-        <v>7299827.988589783</v>
+        <v>7299790.39698876</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111866170</v>
+        <v>111866048</v>
       </c>
       <c r="B5" t="n">
         <v>90682</v>
@@ -1067,10 +1067,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>702754.3208386695</v>
+        <v>702750.1350314748</v>
       </c>
       <c r="R5" t="n">
-        <v>7299886.818591502</v>
+        <v>7299799.924799141</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1140,10 +1140,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111866301</v>
+        <v>111866021</v>
       </c>
       <c r="B6" t="n">
-        <v>90660</v>
+        <v>78107</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,21 +1156,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4362</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>702522.1051459431</v>
+        <v>702738.1111920479</v>
       </c>
       <c r="R6" t="n">
-        <v>7300047.742725079</v>
+        <v>7299806.49869829</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111865919</v>
+        <v>111866131</v>
       </c>
       <c r="B7" t="n">
-        <v>95538</v>
+        <v>90682</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1268,31 +1268,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221941</v>
+        <v>2059</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1300,10 +1299,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>702755.0230470664</v>
+        <v>702756.5806601554</v>
       </c>
       <c r="R7" t="n">
-        <v>7299754.083126943</v>
+        <v>7299854.813386399</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1346,6 +1345,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1373,7 +1377,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111866276</v>
+        <v>111866252</v>
       </c>
       <c r="B8" t="n">
         <v>78107</v>
@@ -1416,10 +1420,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>702660.5304515015</v>
+        <v>702680.6244306123</v>
       </c>
       <c r="R8" t="n">
-        <v>7299928.856484808</v>
+        <v>7299924.914052285</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1489,10 +1493,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111865961</v>
+        <v>111866159</v>
       </c>
       <c r="B9" t="n">
-        <v>77267</v>
+        <v>90652</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1505,21 +1509,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6446</v>
+        <v>3100</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1532,10 +1536,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>702714.4770808229</v>
+        <v>702755.4455659754</v>
       </c>
       <c r="R9" t="n">
-        <v>7299790.39698876</v>
+        <v>7299865.042498757</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1605,10 +1609,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111865981</v>
+        <v>111865919</v>
       </c>
       <c r="B10" t="n">
-        <v>90652</v>
+        <v>95538</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1617,30 +1621,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3100</v>
+        <v>221941</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1648,10 +1653,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>702695.6801449896</v>
+        <v>702755.0230470664</v>
       </c>
       <c r="R10" t="n">
-        <v>7299770.100652335</v>
+        <v>7299754.083126943</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1721,7 +1726,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111866252</v>
+        <v>111866276</v>
       </c>
       <c r="B11" t="n">
         <v>78107</v>
@@ -1764,10 +1769,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>702680.6244306123</v>
+        <v>702660.5304515015</v>
       </c>
       <c r="R11" t="n">
-        <v>7299924.914052285</v>
+        <v>7299928.856484808</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1837,10 +1842,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111865578</v>
+        <v>111865866</v>
       </c>
       <c r="B12" t="n">
-        <v>90854</v>
+        <v>90652</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1853,21 +1858,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2079</v>
+        <v>3100</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1880,10 +1885,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>702741.9879008483</v>
+        <v>702753.3055412351</v>
       </c>
       <c r="R12" t="n">
-        <v>7299745.739876431</v>
+        <v>7299801.798166115</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1953,10 +1958,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111866194</v>
+        <v>111865578</v>
       </c>
       <c r="B13" t="n">
-        <v>90682</v>
+        <v>90854</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1969,21 +1974,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2059</v>
+        <v>2079</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1996,10 +2001,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>702686.7518818546</v>
+        <v>702741.9879008483</v>
       </c>
       <c r="R13" t="n">
-        <v>7299919.985876646</v>
+        <v>7299745.739876431</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2042,11 +2047,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2074,10 +2074,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111865524</v>
+        <v>111866170</v>
       </c>
       <c r="B14" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2090,21 +2090,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2117,10 +2117,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>702731.0699128226</v>
+        <v>702754.3208386695</v>
       </c>
       <c r="R14" t="n">
-        <v>7299742.494774668</v>
+        <v>7299886.818591502</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2190,10 +2190,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111866048</v>
+        <v>111865981</v>
       </c>
       <c r="B15" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2206,21 +2206,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>702750.1350314748</v>
+        <v>702695.6801449896</v>
       </c>
       <c r="R15" t="n">
-        <v>7299799.924799141</v>
+        <v>7299770.100652335</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111866021</v>
+        <v>111865668</v>
       </c>
       <c r="B16" t="n">
         <v>78107</v>
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>702738.1111920479</v>
+        <v>702740.9003275807</v>
       </c>
       <c r="R16" t="n">
-        <v>7299806.49869829</v>
+        <v>7299743.601162716</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2422,10 +2422,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111866031</v>
+        <v>111866301</v>
       </c>
       <c r="B17" t="n">
-        <v>78107</v>
+        <v>90660</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2438,21 +2438,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6453</v>
+        <v>4362</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2465,10 +2465,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>702750.1350314748</v>
+        <v>702522.1051459431</v>
       </c>
       <c r="R17" t="n">
-        <v>7299799.924799141</v>
+        <v>7300047.742725079</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111865668</v>
+        <v>111866194</v>
       </c>
       <c r="B18" t="n">
-        <v>78107</v>
+        <v>90682</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2554,21 +2554,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6453</v>
+        <v>2059</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2581,10 +2581,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>702740.9003275807</v>
+        <v>702686.7518818546</v>
       </c>
       <c r="R18" t="n">
-        <v>7299743.601162716</v>
+        <v>7299919.985876646</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2627,6 +2627,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2654,10 +2659,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111865866</v>
+        <v>111865524</v>
       </c>
       <c r="B19" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2670,21 +2675,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2697,10 +2702,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>702753.3055412351</v>
+        <v>702731.0699128226</v>
       </c>
       <c r="R19" t="n">
-        <v>7299801.798166115</v>
+        <v>7299742.494774668</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2770,10 +2775,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111866131</v>
+        <v>111865488</v>
       </c>
       <c r="B20" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2786,21 +2791,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2813,10 +2818,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>702756.5806601554</v>
+        <v>702716.2360189059</v>
       </c>
       <c r="R20" t="n">
-        <v>7299854.813386399</v>
+        <v>7299724.539719297</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2859,11 +2864,6 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2891,10 +2891,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111866159</v>
+        <v>111866065</v>
       </c>
       <c r="B21" t="n">
-        <v>90652</v>
+        <v>78107</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2907,21 +2907,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3100</v>
+        <v>6453</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2934,10 +2934,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>702755.4455659754</v>
+        <v>702767.9701038125</v>
       </c>
       <c r="R21" t="n">
-        <v>7299865.042498757</v>
+        <v>7299827.988589783</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3007,10 +3007,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111865263</v>
+        <v>111866031</v>
       </c>
       <c r="B22" t="n">
-        <v>90658</v>
+        <v>78107</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3023,21 +3023,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4361</v>
+        <v>6453</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3050,10 +3050,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>702714.1819675351</v>
+        <v>702750.1350314748</v>
       </c>
       <c r="R22" t="n">
-        <v>7299724.394724619</v>
+        <v>7299799.924799141</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>

--- a/artfynd/A 28793-2023.xlsx
+++ b/artfynd/A 28793-2023.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111865263</v>
+        <v>111866159</v>
       </c>
       <c r="B3" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>702714.1819675351</v>
+        <v>702755.4455659754</v>
       </c>
       <c r="R3" t="n">
-        <v>7299724.394724619</v>
+        <v>7299865.042498757</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -908,10 +908,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111865961</v>
+        <v>111866276</v>
       </c>
       <c r="B4" t="n">
-        <v>77267</v>
+        <v>78107</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,21 +924,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6446</v>
+        <v>6453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>702714.4770808229</v>
+        <v>702660.5304515015</v>
       </c>
       <c r="R4" t="n">
-        <v>7299790.39698876</v>
+        <v>7299928.856484808</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111866048</v>
+        <v>111866252</v>
       </c>
       <c r="B5" t="n">
-        <v>90682</v>
+        <v>78107</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,21 +1040,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2059</v>
+        <v>6453</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1067,10 +1067,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>702750.1350314748</v>
+        <v>702680.6244306123</v>
       </c>
       <c r="R5" t="n">
-        <v>7299799.924799141</v>
+        <v>7299924.914052285</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1140,10 +1140,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111866021</v>
+        <v>111866301</v>
       </c>
       <c r="B6" t="n">
-        <v>78107</v>
+        <v>90660</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,21 +1156,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>4362</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>702738.1111920479</v>
+        <v>702522.1051459431</v>
       </c>
       <c r="R6" t="n">
-        <v>7299806.49869829</v>
+        <v>7300047.742725079</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111866131</v>
+        <v>111865866</v>
       </c>
       <c r="B7" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,21 +1272,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>702756.5806601554</v>
+        <v>702753.3055412351</v>
       </c>
       <c r="R7" t="n">
-        <v>7299854.813386399</v>
+        <v>7299801.798166115</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1345,11 +1345,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1377,10 +1372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111866252</v>
+        <v>111865263</v>
       </c>
       <c r="B8" t="n">
-        <v>78107</v>
+        <v>90658</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1393,21 +1388,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6453</v>
+        <v>4361</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1420,10 +1415,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>702680.6244306123</v>
+        <v>702714.1819675351</v>
       </c>
       <c r="R8" t="n">
-        <v>7299924.914052285</v>
+        <v>7299724.394724619</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1493,10 +1488,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111866159</v>
+        <v>111866131</v>
       </c>
       <c r="B9" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1509,21 +1504,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1536,10 +1531,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>702755.4455659754</v>
+        <v>702756.5806601554</v>
       </c>
       <c r="R9" t="n">
-        <v>7299865.042498757</v>
+        <v>7299854.813386399</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1582,6 +1577,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1609,10 +1609,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111865919</v>
+        <v>111866048</v>
       </c>
       <c r="B10" t="n">
-        <v>95538</v>
+        <v>90682</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1621,31 +1621,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221941</v>
+        <v>2059</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1653,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>702755.0230470664</v>
+        <v>702750.1350314748</v>
       </c>
       <c r="R10" t="n">
-        <v>7299754.083126943</v>
+        <v>7299799.924799141</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1726,10 +1725,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111866276</v>
+        <v>111865488</v>
       </c>
       <c r="B11" t="n">
-        <v>78107</v>
+        <v>90660</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1742,21 +1741,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6453</v>
+        <v>4362</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1769,10 +1768,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>702660.5304515015</v>
+        <v>702716.2360189059</v>
       </c>
       <c r="R11" t="n">
-        <v>7299928.856484808</v>
+        <v>7299724.539719297</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1842,10 +1841,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111865866</v>
+        <v>111865578</v>
       </c>
       <c r="B12" t="n">
-        <v>90652</v>
+        <v>90854</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1858,21 +1857,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3100</v>
+        <v>2079</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1885,10 +1884,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>702753.3055412351</v>
+        <v>702741.9879008483</v>
       </c>
       <c r="R12" t="n">
-        <v>7299801.798166115</v>
+        <v>7299745.739876431</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1958,10 +1957,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111865578</v>
+        <v>111866065</v>
       </c>
       <c r="B13" t="n">
-        <v>90854</v>
+        <v>78107</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1974,21 +1973,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2079</v>
+        <v>6453</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2001,10 +2000,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>702741.9879008483</v>
+        <v>702767.9701038125</v>
       </c>
       <c r="R13" t="n">
-        <v>7299745.739876431</v>
+        <v>7299827.988589783</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2074,10 +2073,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111866170</v>
+        <v>111866031</v>
       </c>
       <c r="B14" t="n">
-        <v>90682</v>
+        <v>78107</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2090,21 +2089,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2059</v>
+        <v>6453</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2117,10 +2116,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>702754.3208386695</v>
+        <v>702750.1350314748</v>
       </c>
       <c r="R14" t="n">
-        <v>7299886.818591502</v>
+        <v>7299799.924799141</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2190,10 +2189,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111865981</v>
+        <v>111865919</v>
       </c>
       <c r="B15" t="n">
-        <v>90652</v>
+        <v>95538</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2202,30 +2201,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3100</v>
+        <v>221941</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>702695.6801449896</v>
+        <v>702755.0230470664</v>
       </c>
       <c r="R15" t="n">
-        <v>7299770.100652335</v>
+        <v>7299754.083126943</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2422,10 +2422,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111866301</v>
+        <v>111865961</v>
       </c>
       <c r="B17" t="n">
-        <v>90660</v>
+        <v>77267</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2438,21 +2438,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4362</v>
+        <v>6446</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2465,10 +2465,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>702522.1051459431</v>
+        <v>702714.4770808229</v>
       </c>
       <c r="R17" t="n">
-        <v>7300047.742725079</v>
+        <v>7299790.39698876</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111866194</v>
+        <v>111866021</v>
       </c>
       <c r="B18" t="n">
-        <v>90682</v>
+        <v>78107</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2554,21 +2554,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2059</v>
+        <v>6453</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2581,10 +2581,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>702686.7518818546</v>
+        <v>702738.1111920479</v>
       </c>
       <c r="R18" t="n">
-        <v>7299919.985876646</v>
+        <v>7299806.49869829</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2627,11 +2627,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2659,10 +2654,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111865524</v>
+        <v>111865981</v>
       </c>
       <c r="B19" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2675,21 +2670,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2702,10 +2697,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>702731.0699128226</v>
+        <v>702695.6801449896</v>
       </c>
       <c r="R19" t="n">
-        <v>7299742.494774668</v>
+        <v>7299770.100652335</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2775,7 +2770,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111865488</v>
+        <v>111865524</v>
       </c>
       <c r="B20" t="n">
         <v>90660</v>
@@ -2818,10 +2813,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>702716.2360189059</v>
+        <v>702731.0699128226</v>
       </c>
       <c r="R20" t="n">
-        <v>7299724.539719297</v>
+        <v>7299742.494774668</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2891,10 +2886,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111866065</v>
+        <v>111866170</v>
       </c>
       <c r="B21" t="n">
-        <v>78107</v>
+        <v>90682</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2907,21 +2902,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6453</v>
+        <v>2059</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2934,10 +2929,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>702767.9701038125</v>
+        <v>702754.3208386695</v>
       </c>
       <c r="R21" t="n">
-        <v>7299827.988589783</v>
+        <v>7299886.818591502</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3007,10 +3002,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111866031</v>
+        <v>111866194</v>
       </c>
       <c r="B22" t="n">
-        <v>78107</v>
+        <v>90682</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3023,21 +3018,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6453</v>
+        <v>2059</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3050,10 +3045,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>702750.1350314748</v>
+        <v>702686.7518818546</v>
       </c>
       <c r="R22" t="n">
-        <v>7299799.924799141</v>
+        <v>7299919.985876646</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3096,6 +3091,11 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 28793-2023.xlsx
+++ b/artfynd/A 28793-2023.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111866159</v>
+        <v>111866170</v>
       </c>
       <c r="B3" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>702755.4455659754</v>
+        <v>702754.3208386695</v>
       </c>
       <c r="R3" t="n">
-        <v>7299865.042498757</v>
+        <v>7299886.818591502</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -908,10 +908,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111866276</v>
+        <v>111865981</v>
       </c>
       <c r="B4" t="n">
-        <v>78107</v>
+        <v>90652</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,21 +924,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6453</v>
+        <v>3100</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>702660.5304515015</v>
+        <v>702695.6801449896</v>
       </c>
       <c r="R4" t="n">
-        <v>7299928.856484808</v>
+        <v>7299770.100652335</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111866252</v>
+        <v>111866131</v>
       </c>
       <c r="B5" t="n">
-        <v>78107</v>
+        <v>90682</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,21 +1040,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6453</v>
+        <v>2059</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1067,10 +1067,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>702680.6244306123</v>
+        <v>702756.5806601554</v>
       </c>
       <c r="R5" t="n">
-        <v>7299924.914052285</v>
+        <v>7299854.813386399</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1113,6 +1113,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1140,10 +1145,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111866301</v>
+        <v>111866252</v>
       </c>
       <c r="B6" t="n">
-        <v>90660</v>
+        <v>78107</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,21 +1161,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4362</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1183,10 +1188,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>702522.1051459431</v>
+        <v>702680.6244306123</v>
       </c>
       <c r="R6" t="n">
-        <v>7300047.742725079</v>
+        <v>7299924.914052285</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1256,10 +1261,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111865866</v>
+        <v>111866021</v>
       </c>
       <c r="B7" t="n">
-        <v>90652</v>
+        <v>78107</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,21 +1277,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3100</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1299,10 +1304,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>702753.3055412351</v>
+        <v>702738.1111920479</v>
       </c>
       <c r="R7" t="n">
-        <v>7299801.798166115</v>
+        <v>7299806.49869829</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1372,10 +1377,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111865263</v>
+        <v>111866159</v>
       </c>
       <c r="B8" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,21 +1393,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1415,10 +1420,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>702714.1819675351</v>
+        <v>702755.4455659754</v>
       </c>
       <c r="R8" t="n">
-        <v>7299724.394724619</v>
+        <v>7299865.042498757</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1488,10 +1493,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111866131</v>
+        <v>111866301</v>
       </c>
       <c r="B9" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1504,21 +1509,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1531,10 +1536,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>702756.5806601554</v>
+        <v>702522.1051459431</v>
       </c>
       <c r="R9" t="n">
-        <v>7299854.813386399</v>
+        <v>7300047.742725079</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1577,11 +1582,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1609,10 +1609,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111866048</v>
+        <v>111866276</v>
       </c>
       <c r="B10" t="n">
-        <v>90682</v>
+        <v>78107</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1625,21 +1625,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2059</v>
+        <v>6453</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>702750.1350314748</v>
+        <v>702660.5304515015</v>
       </c>
       <c r="R10" t="n">
-        <v>7299799.924799141</v>
+        <v>7299928.856484808</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1725,10 +1725,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111865488</v>
+        <v>111866194</v>
       </c>
       <c r="B11" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1741,21 +1741,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1768,10 +1768,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>702716.2360189059</v>
+        <v>702686.7518818546</v>
       </c>
       <c r="R11" t="n">
-        <v>7299724.539719297</v>
+        <v>7299919.985876646</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1814,6 +1814,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1841,10 +1846,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111865578</v>
+        <v>111866065</v>
       </c>
       <c r="B12" t="n">
-        <v>90854</v>
+        <v>78107</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1857,21 +1862,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2079</v>
+        <v>6453</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1884,10 +1889,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>702741.9879008483</v>
+        <v>702767.9701038125</v>
       </c>
       <c r="R12" t="n">
-        <v>7299745.739876431</v>
+        <v>7299827.988589783</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1957,10 +1962,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111866065</v>
+        <v>111865488</v>
       </c>
       <c r="B13" t="n">
-        <v>78107</v>
+        <v>90660</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1973,21 +1978,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6453</v>
+        <v>4362</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2000,10 +2005,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>702767.9701038125</v>
+        <v>702716.2360189059</v>
       </c>
       <c r="R13" t="n">
-        <v>7299827.988589783</v>
+        <v>7299724.539719297</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2073,10 +2078,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111866031</v>
+        <v>111866048</v>
       </c>
       <c r="B14" t="n">
-        <v>78107</v>
+        <v>90682</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2089,21 +2094,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6453</v>
+        <v>2059</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2189,10 +2194,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111865919</v>
+        <v>111866031</v>
       </c>
       <c r="B15" t="n">
-        <v>95538</v>
+        <v>78107</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2201,31 +2206,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>221941</v>
+        <v>6453</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2233,10 +2237,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>702755.0230470664</v>
+        <v>702750.1350314748</v>
       </c>
       <c r="R15" t="n">
-        <v>7299754.083126943</v>
+        <v>7299799.924799141</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2306,10 +2310,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111865668</v>
+        <v>111865866</v>
       </c>
       <c r="B16" t="n">
-        <v>78107</v>
+        <v>90652</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2322,21 +2326,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6453</v>
+        <v>3100</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2349,10 +2353,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>702740.9003275807</v>
+        <v>702753.3055412351</v>
       </c>
       <c r="R16" t="n">
-        <v>7299743.601162716</v>
+        <v>7299801.798166115</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2422,10 +2426,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111865961</v>
+        <v>111865263</v>
       </c>
       <c r="B17" t="n">
-        <v>77267</v>
+        <v>90658</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2438,21 +2442,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6446</v>
+        <v>4361</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2465,10 +2469,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>702714.4770808229</v>
+        <v>702714.1819675351</v>
       </c>
       <c r="R17" t="n">
-        <v>7299790.39698876</v>
+        <v>7299724.394724619</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2538,10 +2542,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111866021</v>
+        <v>111865919</v>
       </c>
       <c r="B18" t="n">
-        <v>78107</v>
+        <v>95538</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2550,30 +2554,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6453</v>
+        <v>221941</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2581,10 +2586,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>702738.1111920479</v>
+        <v>702755.0230470664</v>
       </c>
       <c r="R18" t="n">
-        <v>7299806.49869829</v>
+        <v>7299754.083126943</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2654,10 +2659,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111865981</v>
+        <v>111865961</v>
       </c>
       <c r="B19" t="n">
-        <v>90652</v>
+        <v>77267</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2670,21 +2675,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3100</v>
+        <v>6446</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2697,10 +2702,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>702695.6801449896</v>
+        <v>702714.4770808229</v>
       </c>
       <c r="R19" t="n">
-        <v>7299770.100652335</v>
+        <v>7299790.39698876</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2770,10 +2775,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111865524</v>
+        <v>111865578</v>
       </c>
       <c r="B20" t="n">
-        <v>90660</v>
+        <v>90854</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2786,21 +2791,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4362</v>
+        <v>2079</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2813,10 +2818,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>702731.0699128226</v>
+        <v>702741.9879008483</v>
       </c>
       <c r="R20" t="n">
-        <v>7299742.494774668</v>
+        <v>7299745.739876431</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2886,10 +2891,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111866170</v>
+        <v>111865524</v>
       </c>
       <c r="B21" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2902,21 +2907,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2929,10 +2934,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>702754.3208386695</v>
+        <v>702731.0699128226</v>
       </c>
       <c r="R21" t="n">
-        <v>7299886.818591502</v>
+        <v>7299742.494774668</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3002,10 +3007,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111866194</v>
+        <v>111865668</v>
       </c>
       <c r="B22" t="n">
-        <v>90682</v>
+        <v>78107</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3018,21 +3023,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2059</v>
+        <v>6453</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3045,10 +3050,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>702686.7518818546</v>
+        <v>702740.9003275807</v>
       </c>
       <c r="R22" t="n">
-        <v>7299919.985876646</v>
+        <v>7299743.601162716</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3091,11 +3096,6 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 28793-2023.xlsx
+++ b/artfynd/A 28793-2023.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111866170</v>
+        <v>111866276</v>
       </c>
       <c r="B3" t="n">
-        <v>90682</v>
+        <v>78107</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2059</v>
+        <v>6453</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>702754.3208386695</v>
+        <v>702660.5304515015</v>
       </c>
       <c r="R3" t="n">
-        <v>7299886.818591502</v>
+        <v>7299928.856484808</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -908,10 +908,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111865981</v>
+        <v>111866301</v>
       </c>
       <c r="B4" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,21 +924,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>702695.6801449896</v>
+        <v>702522.1051459431</v>
       </c>
       <c r="R4" t="n">
-        <v>7299770.100652335</v>
+        <v>7300047.742725079</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111866131</v>
+        <v>111866194</v>
       </c>
       <c r="B5" t="n">
         <v>90682</v>
@@ -1067,10 +1067,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>702756.5806601554</v>
+        <v>702686.7518818546</v>
       </c>
       <c r="R5" t="n">
-        <v>7299854.813386399</v>
+        <v>7299919.985876646</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111866252</v>
+        <v>111866021</v>
       </c>
       <c r="B6" t="n">
         <v>78107</v>
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>702680.6244306123</v>
+        <v>702738.1111920479</v>
       </c>
       <c r="R6" t="n">
-        <v>7299924.914052285</v>
+        <v>7299806.49869829</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1261,10 +1261,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111866021</v>
+        <v>111866048</v>
       </c>
       <c r="B7" t="n">
-        <v>78107</v>
+        <v>90682</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1277,21 +1277,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>2059</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>702738.1111920479</v>
+        <v>702750.1350314748</v>
       </c>
       <c r="R7" t="n">
-        <v>7299806.49869829</v>
+        <v>7299799.924799141</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111866159</v>
+        <v>111865263</v>
       </c>
       <c r="B8" t="n">
-        <v>90652</v>
+        <v>90658</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1393,21 +1393,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>702755.4455659754</v>
+        <v>702714.1819675351</v>
       </c>
       <c r="R8" t="n">
-        <v>7299865.042498757</v>
+        <v>7299724.394724619</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1493,10 +1493,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111866301</v>
+        <v>111866170</v>
       </c>
       <c r="B9" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1509,21 +1509,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>702522.1051459431</v>
+        <v>702754.3208386695</v>
       </c>
       <c r="R9" t="n">
-        <v>7300047.742725079</v>
+        <v>7299886.818591502</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111866276</v>
+        <v>111866031</v>
       </c>
       <c r="B10" t="n">
         <v>78107</v>
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>702660.5304515015</v>
+        <v>702750.1350314748</v>
       </c>
       <c r="R10" t="n">
-        <v>7299928.856484808</v>
+        <v>7299799.924799141</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1725,10 +1725,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111866194</v>
+        <v>111865488</v>
       </c>
       <c r="B11" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1741,21 +1741,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1768,10 +1768,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>702686.7518818546</v>
+        <v>702716.2360189059</v>
       </c>
       <c r="R11" t="n">
-        <v>7299919.985876646</v>
+        <v>7299724.539719297</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1814,11 +1814,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1846,10 +1841,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111866065</v>
+        <v>111865961</v>
       </c>
       <c r="B12" t="n">
-        <v>78107</v>
+        <v>77267</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1862,21 +1857,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1889,10 +1884,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>702767.9701038125</v>
+        <v>702714.4770808229</v>
       </c>
       <c r="R12" t="n">
-        <v>7299827.988589783</v>
+        <v>7299790.39698876</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1962,10 +1957,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111865488</v>
+        <v>111865981</v>
       </c>
       <c r="B13" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1978,21 +1973,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2005,10 +2000,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>702716.2360189059</v>
+        <v>702695.6801449896</v>
       </c>
       <c r="R13" t="n">
-        <v>7299724.539719297</v>
+        <v>7299770.100652335</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2078,10 +2073,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111866048</v>
+        <v>111865866</v>
       </c>
       <c r="B14" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2094,21 +2089,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2121,10 +2116,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>702750.1350314748</v>
+        <v>702753.3055412351</v>
       </c>
       <c r="R14" t="n">
-        <v>7299799.924799141</v>
+        <v>7299801.798166115</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2194,10 +2189,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111866031</v>
+        <v>111865919</v>
       </c>
       <c r="B15" t="n">
-        <v>78107</v>
+        <v>95538</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2206,30 +2201,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6453</v>
+        <v>221941</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2237,10 +2233,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>702750.1350314748</v>
+        <v>702755.0230470664</v>
       </c>
       <c r="R15" t="n">
-        <v>7299799.924799141</v>
+        <v>7299754.083126943</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2310,10 +2306,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111865866</v>
+        <v>111866065</v>
       </c>
       <c r="B16" t="n">
-        <v>90652</v>
+        <v>78107</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2326,21 +2322,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3100</v>
+        <v>6453</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2353,10 +2349,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>702753.3055412351</v>
+        <v>702767.9701038125</v>
       </c>
       <c r="R16" t="n">
-        <v>7299801.798166115</v>
+        <v>7299827.988589783</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2426,10 +2422,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111865263</v>
+        <v>111866131</v>
       </c>
       <c r="B17" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2442,21 +2438,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2469,10 +2465,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>702714.1819675351</v>
+        <v>702756.5806601554</v>
       </c>
       <c r="R17" t="n">
-        <v>7299724.394724619</v>
+        <v>7299854.813386399</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2515,6 +2511,11 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2542,10 +2543,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111865919</v>
+        <v>111866159</v>
       </c>
       <c r="B18" t="n">
-        <v>95538</v>
+        <v>90652</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2554,31 +2555,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>221941</v>
+        <v>3100</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2586,10 +2586,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>702755.0230470664</v>
+        <v>702755.4455659754</v>
       </c>
       <c r="R18" t="n">
-        <v>7299754.083126943</v>
+        <v>7299865.042498757</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111865961</v>
+        <v>111865668</v>
       </c>
       <c r="B19" t="n">
-        <v>77267</v>
+        <v>78107</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2675,21 +2675,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6446</v>
+        <v>6453</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2702,10 +2702,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>702714.4770808229</v>
+        <v>702740.9003275807</v>
       </c>
       <c r="R19" t="n">
-        <v>7299790.39698876</v>
+        <v>7299743.601162716</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2775,10 +2775,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111865578</v>
+        <v>111866265</v>
       </c>
       <c r="B20" t="n">
-        <v>90854</v>
+        <v>78107</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2791,21 +2791,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2079</v>
+        <v>6453</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2818,10 +2818,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>702741.9879008483</v>
+        <v>702680.6244306123</v>
       </c>
       <c r="R20" t="n">
-        <v>7299745.739876431</v>
+        <v>7299924.914052285</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3007,10 +3007,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111865668</v>
+        <v>111865578</v>
       </c>
       <c r="B22" t="n">
-        <v>78107</v>
+        <v>90854</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3023,21 +3023,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6453</v>
+        <v>2079</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3050,10 +3050,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>702740.9003275807</v>
+        <v>702741.9879008483</v>
       </c>
       <c r="R22" t="n">
-        <v>7299743.601162716</v>
+        <v>7299745.739876431</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>

--- a/artfynd/A 28793-2023.xlsx
+++ b/artfynd/A 28793-2023.xlsx
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111866276</v>
+        <v>111866265</v>
       </c>
       <c r="B3" t="n">
         <v>78107</v>
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>702660.5304515015</v>
+        <v>702680.6244306123</v>
       </c>
       <c r="R3" t="n">
-        <v>7299928.856484808</v>
+        <v>7299924.914052285</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -908,10 +908,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111866301</v>
+        <v>111866048</v>
       </c>
       <c r="B4" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,21 +924,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>702522.1051459431</v>
+        <v>702750.1350314748</v>
       </c>
       <c r="R4" t="n">
-        <v>7300047.742725079</v>
+        <v>7299799.924799141</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111866194</v>
+        <v>111866159</v>
       </c>
       <c r="B5" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,21 +1040,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1067,10 +1067,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>702686.7518818546</v>
+        <v>702755.4455659754</v>
       </c>
       <c r="R5" t="n">
-        <v>7299919.985876646</v>
+        <v>7299865.042498757</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1113,11 +1113,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1145,10 +1140,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111866021</v>
+        <v>111866301</v>
       </c>
       <c r="B6" t="n">
-        <v>78107</v>
+        <v>90660</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1161,21 +1156,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>4362</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1188,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>702738.1111920479</v>
+        <v>702522.1051459431</v>
       </c>
       <c r="R6" t="n">
-        <v>7299806.49869829</v>
+        <v>7300047.742725079</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1261,10 +1256,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111866048</v>
+        <v>111865668</v>
       </c>
       <c r="B7" t="n">
-        <v>90682</v>
+        <v>78107</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1277,21 +1272,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2059</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1304,10 +1299,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>702750.1350314748</v>
+        <v>702740.9003275807</v>
       </c>
       <c r="R7" t="n">
-        <v>7299799.924799141</v>
+        <v>7299743.601162716</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1377,10 +1372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111865263</v>
+        <v>111866031</v>
       </c>
       <c r="B8" t="n">
-        <v>90658</v>
+        <v>78107</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1393,21 +1388,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4361</v>
+        <v>6453</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1420,10 +1415,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>702714.1819675351</v>
+        <v>702750.1350314748</v>
       </c>
       <c r="R8" t="n">
-        <v>7299724.394724619</v>
+        <v>7299799.924799141</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1493,10 +1488,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111866170</v>
+        <v>111865263</v>
       </c>
       <c r="B9" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1509,21 +1504,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1536,10 +1531,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>702754.3208386695</v>
+        <v>702714.1819675351</v>
       </c>
       <c r="R9" t="n">
-        <v>7299886.818591502</v>
+        <v>7299724.394724619</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1609,7 +1604,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111866031</v>
+        <v>111866021</v>
       </c>
       <c r="B10" t="n">
         <v>78107</v>
@@ -1652,10 +1647,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>702750.1350314748</v>
+        <v>702738.1111920479</v>
       </c>
       <c r="R10" t="n">
-        <v>7299799.924799141</v>
+        <v>7299806.49869829</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1841,10 +1836,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111865961</v>
+        <v>111866194</v>
       </c>
       <c r="B12" t="n">
-        <v>77267</v>
+        <v>90682</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1857,21 +1852,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6446</v>
+        <v>2059</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1884,10 +1879,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>702714.4770808229</v>
+        <v>702686.7518818546</v>
       </c>
       <c r="R12" t="n">
-        <v>7299790.39698876</v>
+        <v>7299919.985876646</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1930,6 +1925,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1957,7 +1957,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111865981</v>
+        <v>111865866</v>
       </c>
       <c r="B13" t="n">
         <v>90652</v>
@@ -2000,10 +2000,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>702695.6801449896</v>
+        <v>702753.3055412351</v>
       </c>
       <c r="R13" t="n">
-        <v>7299770.100652335</v>
+        <v>7299801.798166115</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2073,10 +2073,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111865866</v>
+        <v>111866170</v>
       </c>
       <c r="B14" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2089,21 +2089,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2116,10 +2116,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>702753.3055412351</v>
+        <v>702754.3208386695</v>
       </c>
       <c r="R14" t="n">
-        <v>7299801.798166115</v>
+        <v>7299886.818591502</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111866065</v>
+        <v>111865961</v>
       </c>
       <c r="B16" t="n">
-        <v>78107</v>
+        <v>77267</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2322,21 +2322,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>702767.9701038125</v>
+        <v>702714.4770808229</v>
       </c>
       <c r="R16" t="n">
-        <v>7299827.988589783</v>
+        <v>7299790.39698876</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2543,10 +2543,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111866159</v>
+        <v>111866065</v>
       </c>
       <c r="B18" t="n">
-        <v>90652</v>
+        <v>78107</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2559,21 +2559,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3100</v>
+        <v>6453</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2586,10 +2586,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>702755.4455659754</v>
+        <v>702767.9701038125</v>
       </c>
       <c r="R18" t="n">
-        <v>7299865.042498757</v>
+        <v>7299827.988589783</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111865668</v>
+        <v>111865578</v>
       </c>
       <c r="B19" t="n">
-        <v>78107</v>
+        <v>90854</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2675,21 +2675,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6453</v>
+        <v>2079</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2702,10 +2702,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>702740.9003275807</v>
+        <v>702741.9879008483</v>
       </c>
       <c r="R19" t="n">
-        <v>7299743.601162716</v>
+        <v>7299745.739876431</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111866265</v>
+        <v>111866276</v>
       </c>
       <c r="B20" t="n">
         <v>78107</v>
@@ -2818,10 +2818,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>702680.6244306123</v>
+        <v>702660.5304515015</v>
       </c>
       <c r="R20" t="n">
-        <v>7299924.914052285</v>
+        <v>7299928.856484808</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2891,10 +2891,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111865524</v>
+        <v>111865981</v>
       </c>
       <c r="B21" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2907,21 +2907,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2934,10 +2934,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>702731.0699128226</v>
+        <v>702695.6801449896</v>
       </c>
       <c r="R21" t="n">
-        <v>7299742.494774668</v>
+        <v>7299770.100652335</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3007,10 +3007,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111865578</v>
+        <v>111865524</v>
       </c>
       <c r="B22" t="n">
-        <v>90854</v>
+        <v>90660</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3023,21 +3023,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2079</v>
+        <v>4362</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3050,10 +3050,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>702741.9879008483</v>
+        <v>702731.0699128226</v>
       </c>
       <c r="R22" t="n">
-        <v>7299745.739876431</v>
+        <v>7299742.494774668</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>

--- a/artfynd/A 28793-2023.xlsx
+++ b/artfynd/A 28793-2023.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111866265</v>
+        <v>111866301</v>
       </c>
       <c r="B3" t="n">
-        <v>78107</v>
+        <v>90660</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6453</v>
+        <v>4362</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>702680.6244306123</v>
+        <v>702522.1051459431</v>
       </c>
       <c r="R3" t="n">
-        <v>7299924.914052285</v>
+        <v>7300047.742725079</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -908,10 +908,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111866048</v>
+        <v>111865488</v>
       </c>
       <c r="B4" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,21 +924,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>702750.1350314748</v>
+        <v>702716.2360189059</v>
       </c>
       <c r="R4" t="n">
-        <v>7299799.924799141</v>
+        <v>7299724.539719297</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111866159</v>
+        <v>111866252</v>
       </c>
       <c r="B5" t="n">
-        <v>90652</v>
+        <v>78107</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,21 +1040,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3100</v>
+        <v>6453</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1067,10 +1067,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>702755.4455659754</v>
+        <v>702680.6244306123</v>
       </c>
       <c r="R5" t="n">
-        <v>7299865.042498757</v>
+        <v>7299924.914052285</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1140,10 +1140,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111866301</v>
+        <v>111865961</v>
       </c>
       <c r="B6" t="n">
-        <v>90660</v>
+        <v>77267</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,21 +1156,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4362</v>
+        <v>6446</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>702522.1051459431</v>
+        <v>702714.4770808229</v>
       </c>
       <c r="R6" t="n">
-        <v>7300047.742725079</v>
+        <v>7299790.39698876</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111865668</v>
+        <v>111865919</v>
       </c>
       <c r="B7" t="n">
-        <v>78107</v>
+        <v>95538</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1268,30 +1268,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>221941</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1299,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>702740.9003275807</v>
+        <v>702755.0230470664</v>
       </c>
       <c r="R7" t="n">
-        <v>7299743.601162716</v>
+        <v>7299754.083126943</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1372,7 +1373,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111866031</v>
+        <v>111866276</v>
       </c>
       <c r="B8" t="n">
         <v>78107</v>
@@ -1415,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>702750.1350314748</v>
+        <v>702660.5304515015</v>
       </c>
       <c r="R8" t="n">
-        <v>7299799.924799141</v>
+        <v>7299928.856484808</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1488,10 +1489,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111865263</v>
+        <v>111866194</v>
       </c>
       <c r="B9" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1504,21 +1505,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1531,10 +1532,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>702714.1819675351</v>
+        <v>702686.7518818546</v>
       </c>
       <c r="R9" t="n">
-        <v>7299724.394724619</v>
+        <v>7299919.985876646</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1577,6 +1578,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1720,10 +1726,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111865488</v>
+        <v>111866159</v>
       </c>
       <c r="B11" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1736,21 +1742,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1763,10 +1769,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>702716.2360189059</v>
+        <v>702755.4455659754</v>
       </c>
       <c r="R11" t="n">
-        <v>7299724.539719297</v>
+        <v>7299865.042498757</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1836,10 +1842,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111866194</v>
+        <v>111865866</v>
       </c>
       <c r="B12" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,21 +1858,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1879,10 +1885,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>702686.7518818546</v>
+        <v>702753.3055412351</v>
       </c>
       <c r="R12" t="n">
-        <v>7299919.985876646</v>
+        <v>7299801.798166115</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1925,11 +1931,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1957,10 +1958,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111865866</v>
+        <v>111866065</v>
       </c>
       <c r="B13" t="n">
-        <v>90652</v>
+        <v>78107</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1973,21 +1974,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3100</v>
+        <v>6453</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2000,10 +2001,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>702753.3055412351</v>
+        <v>702767.9701038125</v>
       </c>
       <c r="R13" t="n">
-        <v>7299801.798166115</v>
+        <v>7299827.988589783</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2073,7 +2074,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111866170</v>
+        <v>111866048</v>
       </c>
       <c r="B14" t="n">
         <v>90682</v>
@@ -2116,10 +2117,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>702754.3208386695</v>
+        <v>702750.1350314748</v>
       </c>
       <c r="R14" t="n">
-        <v>7299886.818591502</v>
+        <v>7299799.924799141</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2189,10 +2190,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111865919</v>
+        <v>111865981</v>
       </c>
       <c r="B15" t="n">
-        <v>95538</v>
+        <v>90652</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2201,31 +2202,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>221941</v>
+        <v>3100</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>702755.0230470664</v>
+        <v>702695.6801449896</v>
       </c>
       <c r="R15" t="n">
-        <v>7299754.083126943</v>
+        <v>7299770.100652335</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111865961</v>
+        <v>111865524</v>
       </c>
       <c r="B16" t="n">
-        <v>77267</v>
+        <v>90660</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2322,21 +2322,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6446</v>
+        <v>4362</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>702714.4770808229</v>
+        <v>702731.0699128226</v>
       </c>
       <c r="R16" t="n">
-        <v>7299790.39698876</v>
+        <v>7299742.494774668</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111866131</v>
+        <v>111866170</v>
       </c>
       <c r="B17" t="n">
         <v>90682</v>
@@ -2465,10 +2465,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>702756.5806601554</v>
+        <v>702754.3208386695</v>
       </c>
       <c r="R17" t="n">
-        <v>7299854.813386399</v>
+        <v>7299886.818591502</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2511,11 +2511,6 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2543,10 +2538,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111866065</v>
+        <v>111865578</v>
       </c>
       <c r="B18" t="n">
-        <v>78107</v>
+        <v>90854</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2559,21 +2554,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6453</v>
+        <v>2079</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2586,10 +2581,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>702767.9701038125</v>
+        <v>702741.9879008483</v>
       </c>
       <c r="R18" t="n">
-        <v>7299827.988589783</v>
+        <v>7299745.739876431</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2659,10 +2654,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111865578</v>
+        <v>111865263</v>
       </c>
       <c r="B19" t="n">
-        <v>90854</v>
+        <v>90658</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2675,21 +2670,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2079</v>
+        <v>4361</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2702,10 +2697,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>702741.9879008483</v>
+        <v>702714.1819675351</v>
       </c>
       <c r="R19" t="n">
-        <v>7299745.739876431</v>
+        <v>7299724.394724619</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2775,7 +2770,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111866276</v>
+        <v>111865668</v>
       </c>
       <c r="B20" t="n">
         <v>78107</v>
@@ -2818,10 +2813,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>702660.5304515015</v>
+        <v>702740.9003275807</v>
       </c>
       <c r="R20" t="n">
-        <v>7299928.856484808</v>
+        <v>7299743.601162716</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2891,10 +2886,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111865981</v>
+        <v>111866031</v>
       </c>
       <c r="B21" t="n">
-        <v>90652</v>
+        <v>78107</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2907,21 +2902,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3100</v>
+        <v>6453</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2934,10 +2929,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>702695.6801449896</v>
+        <v>702750.1350314748</v>
       </c>
       <c r="R21" t="n">
-        <v>7299770.100652335</v>
+        <v>7299799.924799141</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3007,10 +3002,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111865524</v>
+        <v>111866131</v>
       </c>
       <c r="B22" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3023,21 +3018,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3050,10 +3045,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>702731.0699128226</v>
+        <v>702756.5806601554</v>
       </c>
       <c r="R22" t="n">
-        <v>7299742.494774668</v>
+        <v>7299854.813386399</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3096,6 +3091,11 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 28793-2023.xlsx
+++ b/artfynd/A 28793-2023.xlsx
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>702818.5724324703</v>
+        <v>702819</v>
       </c>
       <c r="R2" t="n">
-        <v>7300017.537649242</v>
+        <v>7300018</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>702522.1051459431</v>
+        <v>702522</v>
       </c>
       <c r="R3" t="n">
-        <v>7300047.742725079</v>
+        <v>7300048</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -908,10 +908,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111865488</v>
+        <v>111865919</v>
       </c>
       <c r="B4" t="n">
-        <v>90660</v>
+        <v>95538</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,30 +920,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4362</v>
+        <v>221941</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -951,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>702716.2360189059</v>
+        <v>702755</v>
       </c>
       <c r="R4" t="n">
-        <v>7299724.539719297</v>
+        <v>7299754</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1024,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111866252</v>
+        <v>111865981</v>
       </c>
       <c r="B5" t="n">
-        <v>78107</v>
+        <v>90652</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,21 +1041,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6453</v>
+        <v>3100</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1067,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>702680.6244306123</v>
+        <v>702696</v>
       </c>
       <c r="R5" t="n">
-        <v>7299924.914052285</v>
+        <v>7299770</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1140,10 +1141,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111865961</v>
+        <v>111866048</v>
       </c>
       <c r="B6" t="n">
-        <v>77267</v>
+        <v>90682</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,21 +1157,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6446</v>
+        <v>2059</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1183,10 +1184,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>702714.4770808229</v>
+        <v>702750</v>
       </c>
       <c r="R6" t="n">
-        <v>7299790.39698876</v>
+        <v>7299800</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1256,10 +1257,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111865919</v>
+        <v>111866265</v>
       </c>
       <c r="B7" t="n">
-        <v>95538</v>
+        <v>78107</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1268,31 +1269,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221941</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>702755.0230470664</v>
+        <v>702681</v>
       </c>
       <c r="R7" t="n">
-        <v>7299754.083126943</v>
+        <v>7299925</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111866276</v>
+        <v>111866031</v>
       </c>
       <c r="B8" t="n">
         <v>78107</v>
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>702660.5304515015</v>
+        <v>702750</v>
       </c>
       <c r="R8" t="n">
-        <v>7299928.856484808</v>
+        <v>7299800</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111866194</v>
+        <v>111865866</v>
       </c>
       <c r="B9" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1505,21 +1505,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>702686.7518818546</v>
+        <v>702753</v>
       </c>
       <c r="R9" t="n">
-        <v>7299919.985876646</v>
+        <v>7299802</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1578,11 +1578,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1610,10 +1605,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111866021</v>
+        <v>111865263</v>
       </c>
       <c r="B10" t="n">
-        <v>78107</v>
+        <v>90658</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1626,21 +1621,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6453</v>
+        <v>4361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1653,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>702738.1111920479</v>
+        <v>702714</v>
       </c>
       <c r="R10" t="n">
-        <v>7299806.49869829</v>
+        <v>7299724</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1726,10 +1721,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111866159</v>
+        <v>111866065</v>
       </c>
       <c r="B11" t="n">
-        <v>90652</v>
+        <v>78107</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1742,21 +1737,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3100</v>
+        <v>6453</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1769,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>702755.4455659754</v>
+        <v>702768</v>
       </c>
       <c r="R11" t="n">
-        <v>7299865.042498757</v>
+        <v>7299828</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1842,10 +1837,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111865866</v>
+        <v>111865488</v>
       </c>
       <c r="B12" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1858,21 +1853,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1885,10 +1880,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>702753.3055412351</v>
+        <v>702716</v>
       </c>
       <c r="R12" t="n">
-        <v>7299801.798166115</v>
+        <v>7299725</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1958,10 +1953,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111866065</v>
+        <v>111866170</v>
       </c>
       <c r="B13" t="n">
-        <v>78107</v>
+        <v>90682</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1974,21 +1969,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6453</v>
+        <v>2059</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2001,10 +1996,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>702767.9701038125</v>
+        <v>702754</v>
       </c>
       <c r="R13" t="n">
-        <v>7299827.988589783</v>
+        <v>7299887</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2074,10 +2069,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111866048</v>
+        <v>111865524</v>
       </c>
       <c r="B14" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2090,21 +2085,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2117,10 +2112,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>702750.1350314748</v>
+        <v>702731</v>
       </c>
       <c r="R14" t="n">
-        <v>7299799.924799141</v>
+        <v>7299742</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2190,10 +2185,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111865981</v>
+        <v>111866131</v>
       </c>
       <c r="B15" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2206,21 +2201,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2233,10 +2228,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>702695.6801449896</v>
+        <v>702757</v>
       </c>
       <c r="R15" t="n">
-        <v>7299770.100652335</v>
+        <v>7299855</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2279,6 +2274,11 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2306,10 +2306,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111865524</v>
+        <v>111866159</v>
       </c>
       <c r="B16" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2322,21 +2322,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>702731.0699128226</v>
+        <v>702755</v>
       </c>
       <c r="R16" t="n">
-        <v>7299742.494774668</v>
+        <v>7299865</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2422,10 +2422,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111866170</v>
+        <v>111865578</v>
       </c>
       <c r="B17" t="n">
-        <v>90682</v>
+        <v>90854</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2438,21 +2438,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2059</v>
+        <v>2079</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2465,10 +2465,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>702754.3208386695</v>
+        <v>702742</v>
       </c>
       <c r="R17" t="n">
-        <v>7299886.818591502</v>
+        <v>7299746</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111865578</v>
+        <v>111866021</v>
       </c>
       <c r="B18" t="n">
-        <v>90854</v>
+        <v>78107</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2554,21 +2554,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2079</v>
+        <v>6453</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2581,10 +2581,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>702741.9879008483</v>
+        <v>702738</v>
       </c>
       <c r="R18" t="n">
-        <v>7299745.739876431</v>
+        <v>7299806</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2654,10 +2654,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111865263</v>
+        <v>111865668</v>
       </c>
       <c r="B19" t="n">
-        <v>90658</v>
+        <v>78107</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2670,21 +2670,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4361</v>
+        <v>6453</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2697,10 +2697,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>702714.1819675351</v>
+        <v>702741</v>
       </c>
       <c r="R19" t="n">
-        <v>7299724.394724619</v>
+        <v>7299744</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111865668</v>
+        <v>111866276</v>
       </c>
       <c r="B20" t="n">
         <v>78107</v>
@@ -2813,10 +2813,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>702740.9003275807</v>
+        <v>702661</v>
       </c>
       <c r="R20" t="n">
-        <v>7299743.601162716</v>
+        <v>7299929</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2886,10 +2886,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111866031</v>
+        <v>111866194</v>
       </c>
       <c r="B21" t="n">
-        <v>78107</v>
+        <v>90682</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2902,21 +2902,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6453</v>
+        <v>2059</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2929,10 +2929,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>702750.1350314748</v>
+        <v>702687</v>
       </c>
       <c r="R21" t="n">
-        <v>7299799.924799141</v>
+        <v>7299920</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2975,6 +2975,11 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3002,10 +3007,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111866131</v>
+        <v>111865961</v>
       </c>
       <c r="B22" t="n">
-        <v>90682</v>
+        <v>77267</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3018,21 +3023,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2059</v>
+        <v>6446</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3045,10 +3050,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>702756.5806601554</v>
+        <v>702714</v>
       </c>
       <c r="R22" t="n">
-        <v>7299854.813386399</v>
+        <v>7299790</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3091,11 +3096,6 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 28793-2023.xlsx
+++ b/artfynd/A 28793-2023.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111866301</v>
+        <v>111866252</v>
       </c>
       <c r="B3" t="n">
-        <v>90660</v>
+        <v>78228</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4362</v>
+        <v>6453</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>702522</v>
+        <v>702681</v>
       </c>
       <c r="R3" t="n">
-        <v>7300048</v>
+        <v>7299925</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -908,10 +908,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111865919</v>
+        <v>111866194</v>
       </c>
       <c r="B4" t="n">
-        <v>95538</v>
+        <v>90816</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,31 +920,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221941</v>
+        <v>2059</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -952,10 +951,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>702755</v>
+        <v>702687</v>
       </c>
       <c r="R4" t="n">
-        <v>7299754</v>
+        <v>7299920</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -998,6 +997,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1025,10 +1029,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111865981</v>
+        <v>111866276</v>
       </c>
       <c r="B5" t="n">
-        <v>90652</v>
+        <v>78228</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,21 +1045,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3100</v>
+        <v>6453</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1068,10 +1072,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>702696</v>
+        <v>702661</v>
       </c>
       <c r="R5" t="n">
-        <v>7299770</v>
+        <v>7299929</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1144,7 +1148,7 @@
         <v>111866048</v>
       </c>
       <c r="B6" t="n">
-        <v>90682</v>
+        <v>90816</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1257,10 +1261,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111866265</v>
+        <v>111865524</v>
       </c>
       <c r="B7" t="n">
-        <v>78107</v>
+        <v>90794</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1273,21 +1277,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>4362</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,10 +1304,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>702681</v>
+        <v>702731</v>
       </c>
       <c r="R7" t="n">
-        <v>7299925</v>
+        <v>7299742</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1376,7 +1380,7 @@
         <v>111866031</v>
       </c>
       <c r="B8" t="n">
-        <v>78107</v>
+        <v>78228</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1492,7 +1496,7 @@
         <v>111865866</v>
       </c>
       <c r="B9" t="n">
-        <v>90652</v>
+        <v>90786</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1605,10 +1609,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111865263</v>
+        <v>111865578</v>
       </c>
       <c r="B10" t="n">
-        <v>90658</v>
+        <v>90988</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1621,21 +1625,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>2079</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1648,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>702714</v>
+        <v>702742</v>
       </c>
       <c r="R10" t="n">
-        <v>7299724</v>
+        <v>7299746</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1721,10 +1725,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111866065</v>
+        <v>111865981</v>
       </c>
       <c r="B11" t="n">
-        <v>78107</v>
+        <v>90786</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1737,21 +1741,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6453</v>
+        <v>3100</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1768,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>702768</v>
+        <v>702696</v>
       </c>
       <c r="R11" t="n">
-        <v>7299828</v>
+        <v>7299770</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1837,10 +1841,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111865488</v>
+        <v>111866301</v>
       </c>
       <c r="B12" t="n">
-        <v>90660</v>
+        <v>90794</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1880,10 +1884,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>702716</v>
+        <v>702522</v>
       </c>
       <c r="R12" t="n">
-        <v>7299725</v>
+        <v>7300048</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1953,10 +1957,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111866170</v>
+        <v>111865961</v>
       </c>
       <c r="B13" t="n">
-        <v>90682</v>
+        <v>77388</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1969,21 +1973,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2059</v>
+        <v>6446</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1996,10 +2000,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>702754</v>
+        <v>702714</v>
       </c>
       <c r="R13" t="n">
-        <v>7299887</v>
+        <v>7299790</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2069,10 +2073,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111865524</v>
+        <v>111866021</v>
       </c>
       <c r="B14" t="n">
-        <v>90660</v>
+        <v>78228</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2085,21 +2089,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4362</v>
+        <v>6453</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2112,10 +2116,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>702731</v>
+        <v>702738</v>
       </c>
       <c r="R14" t="n">
-        <v>7299742</v>
+        <v>7299806</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2185,10 +2189,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111866131</v>
+        <v>111866170</v>
       </c>
       <c r="B15" t="n">
-        <v>90682</v>
+        <v>90816</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2228,10 +2232,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>702757</v>
+        <v>702754</v>
       </c>
       <c r="R15" t="n">
-        <v>7299855</v>
+        <v>7299887</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2274,11 +2278,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2306,10 +2305,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111866159</v>
+        <v>111865488</v>
       </c>
       <c r="B16" t="n">
-        <v>90652</v>
+        <v>90794</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2322,21 +2321,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2349,10 +2348,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>702755</v>
+        <v>702716</v>
       </c>
       <c r="R16" t="n">
-        <v>7299865</v>
+        <v>7299725</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2422,10 +2421,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111865578</v>
+        <v>111865919</v>
       </c>
       <c r="B17" t="n">
-        <v>90854</v>
+        <v>95693</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2434,30 +2433,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2079</v>
+        <v>221941</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>702742</v>
+        <v>702755</v>
       </c>
       <c r="R17" t="n">
-        <v>7299746</v>
+        <v>7299754</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111866021</v>
+        <v>111866159</v>
       </c>
       <c r="B18" t="n">
-        <v>78107</v>
+        <v>90786</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2554,21 +2554,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6453</v>
+        <v>3100</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2581,10 +2581,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>702738</v>
+        <v>702755</v>
       </c>
       <c r="R18" t="n">
-        <v>7299806</v>
+        <v>7299865</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2654,10 +2654,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111865668</v>
+        <v>111866131</v>
       </c>
       <c r="B19" t="n">
-        <v>78107</v>
+        <v>90816</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2670,21 +2670,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6453</v>
+        <v>2059</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2697,10 +2697,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>702741</v>
+        <v>702757</v>
       </c>
       <c r="R19" t="n">
-        <v>7299744</v>
+        <v>7299855</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2743,6 +2743,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2770,10 +2775,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111866276</v>
+        <v>111866065</v>
       </c>
       <c r="B20" t="n">
-        <v>78107</v>
+        <v>78228</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2813,10 +2818,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>702661</v>
+        <v>702768</v>
       </c>
       <c r="R20" t="n">
-        <v>7299929</v>
+        <v>7299828</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2886,10 +2891,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111866194</v>
+        <v>111865668</v>
       </c>
       <c r="B21" t="n">
-        <v>90682</v>
+        <v>78228</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2902,21 +2907,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2059</v>
+        <v>6453</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2929,10 +2934,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>702687</v>
+        <v>702741</v>
       </c>
       <c r="R21" t="n">
-        <v>7299920</v>
+        <v>7299744</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2975,11 +2980,6 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>14:30</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Flera fruktkoppar som växer i en häxring</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3007,10 +3007,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111865961</v>
+        <v>111865263</v>
       </c>
       <c r="B22" t="n">
-        <v>77267</v>
+        <v>90792</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3023,21 +3023,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6446</v>
+        <v>4361</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3053,7 +3053,7 @@
         <v>702714</v>
       </c>
       <c r="R22" t="n">
-        <v>7299790</v>
+        <v>7299724</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>

--- a/artfynd/A 28793-2023.xlsx
+++ b/artfynd/A 28793-2023.xlsx
@@ -2305,10 +2305,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111865488</v>
+        <v>111865919</v>
       </c>
       <c r="B16" t="n">
-        <v>90794</v>
+        <v>95693</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2317,30 +2317,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4362</v>
+        <v>221941</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2348,10 +2349,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>702716</v>
+        <v>702755</v>
       </c>
       <c r="R16" t="n">
-        <v>7299725</v>
+        <v>7299754</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2421,10 +2422,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111865919</v>
+        <v>111866159</v>
       </c>
       <c r="B17" t="n">
-        <v>95693</v>
+        <v>90786</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2433,31 +2434,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221941</v>
+        <v>3100</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>702755</v>
       </c>
       <c r="R17" t="n">
-        <v>7299754</v>
+        <v>7299865</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111866159</v>
+        <v>111865488</v>
       </c>
       <c r="B18" t="n">
-        <v>90786</v>
+        <v>90794</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2554,21 +2554,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2581,10 +2581,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>702755</v>
+        <v>702716</v>
       </c>
       <c r="R18" t="n">
-        <v>7299865</v>
+        <v>7299725</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
